--- a/database/industries/shoyande/kimiatec/cost/quarterly.xlsx
+++ b/database/industries/shoyande/kimiatec/cost/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\kimiatec\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028783F8-3BE0-4DEC-89FA-ECB19ED67B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="58">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>کیمیاتک-آریان کیمیا تک</t>
@@ -33,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -48,6 +46,9 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
@@ -97,9 +98,6 @@
   </si>
   <si>
     <t>کیلوگرم</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>مقدار خرید طی دوره</t>
@@ -201,7 +199,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -371,7 +369,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -383,7 +381,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -430,6 +428,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -465,6 +480,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -616,17 +648,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -636,7 +668,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -648,7 +680,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -660,7 +692,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -670,7 +702,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -682,7 +714,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -694,7 +726,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -704,7 +736,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -726,7 +758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -736,95 +768,95 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>2193065</v>
+        <v>1477656</v>
       </c>
       <c r="F10" s="9">
-        <v>1477656</v>
+        <v>2918407</v>
       </c>
       <c r="G10" s="9">
-        <v>2918407</v>
+        <v>3018216</v>
       </c>
       <c r="H10" s="9">
-        <v>3018216</v>
+        <v>3485704</v>
       </c>
       <c r="I10" s="9">
-        <v>3485704</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3593204</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>52360</v>
+        <v>54801</v>
       </c>
       <c r="F11" s="11">
-        <v>54801</v>
+        <v>46383</v>
       </c>
       <c r="G11" s="11">
-        <v>46383</v>
+        <v>89291</v>
       </c>
       <c r="H11" s="11">
-        <v>89291</v>
+        <v>81762</v>
       </c>
       <c r="I11" s="11">
-        <v>81762</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>84777</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>135764</v>
+        <v>233168</v>
       </c>
       <c r="F12" s="9">
-        <v>233168</v>
+        <v>323033</v>
       </c>
       <c r="G12" s="9">
-        <v>323033</v>
+        <v>272424</v>
       </c>
       <c r="H12" s="9">
-        <v>272424</v>
+        <v>351284</v>
       </c>
       <c r="I12" s="9">
-        <v>351284</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>321375</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>2381189</v>
+        <v>1765625</v>
       </c>
       <c r="F13" s="13">
-        <v>1765625</v>
+        <v>3287823</v>
       </c>
       <c r="G13" s="13">
-        <v>3287823</v>
+        <v>3379931</v>
       </c>
       <c r="H13" s="13">
-        <v>3379931</v>
+        <v>3918750</v>
       </c>
       <c r="I13" s="13">
-        <v>3918750</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3999356</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -846,29 +878,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>2381189</v>
+        <v>1765625</v>
       </c>
       <c r="F15" s="13">
-        <v>1765625</v>
+        <v>3287823</v>
       </c>
       <c r="G15" s="13">
-        <v>3287823</v>
+        <v>3379931</v>
       </c>
       <c r="H15" s="13">
-        <v>3379931</v>
+        <v>3918750</v>
       </c>
       <c r="I15" s="13">
-        <v>3918750</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3999356</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
@@ -890,7 +922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -912,29 +944,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>2381189</v>
+        <v>1765625</v>
       </c>
       <c r="F18" s="15">
-        <v>1765625</v>
+        <v>3287823</v>
       </c>
       <c r="G18" s="15">
-        <v>3287823</v>
+        <v>3379931</v>
       </c>
       <c r="H18" s="15">
-        <v>3379931</v>
+        <v>3918750</v>
       </c>
       <c r="I18" s="15">
-        <v>3918750</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3999356</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
@@ -944,63 +976,63 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>447261</v>
       </c>
       <c r="G19" s="11">
-        <v>447261</v>
+        <v>1620696</v>
       </c>
       <c r="H19" s="11">
-        <v>1620696</v>
+        <v>1923104</v>
       </c>
       <c r="I19" s="11">
-        <v>1923104</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2428481</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-255927</v>
+        <v>447261</v>
       </c>
       <c r="F20" s="9">
-        <v>447261</v>
+        <v>-1620696</v>
       </c>
       <c r="G20" s="9">
-        <v>-1620696</v>
+        <v>-1923104</v>
       </c>
       <c r="H20" s="9">
-        <v>-1923104</v>
+        <v>-2428481</v>
       </c>
       <c r="I20" s="9">
-        <v>-2428481</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2245627</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>2125262</v>
+        <v>2212886</v>
       </c>
       <c r="F21" s="13">
-        <v>2212886</v>
+        <v>3185769</v>
       </c>
       <c r="G21" s="13">
-        <v>3185769</v>
+        <v>3077523</v>
       </c>
       <c r="H21" s="13">
-        <v>3077523</v>
+        <v>3413373</v>
       </c>
       <c r="I21" s="13">
-        <v>3413373</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4182210</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1022,29 +1054,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>2125262</v>
+        <v>2212886</v>
       </c>
       <c r="F23" s="13">
-        <v>2212886</v>
+        <v>3185769</v>
       </c>
       <c r="G23" s="13">
-        <v>3185769</v>
+        <v>3077523</v>
       </c>
       <c r="H23" s="13">
-        <v>3077523</v>
+        <v>3413373</v>
       </c>
       <c r="I23" s="13">
-        <v>3413373</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4182210</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1054,7 +1086,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1064,7 +1096,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1074,7 +1106,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1096,7 +1128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1106,7 +1138,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1115,44 +1147,44 @@
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
-        <v>164872462</v>
+        <v>221659196</v>
       </c>
       <c r="F29" s="9">
-        <v>221659196</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>26</v>
+        <v>186530534</v>
+      </c>
+      <c r="G29" s="9">
+        <v>177183635</v>
       </c>
       <c r="H29" s="9">
-        <v>177183635</v>
+        <v>182937721</v>
       </c>
       <c r="I29" s="9">
-        <v>182937721</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>129289208</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13">
-        <v>164872462</v>
+        <v>221659196</v>
       </c>
       <c r="F30" s="13">
-        <v>221659196</v>
+        <v>186530534</v>
       </c>
       <c r="G30" s="13">
-        <v>0</v>
+        <v>177183635</v>
       </c>
       <c r="H30" s="13">
-        <v>177183635</v>
+        <v>182937721</v>
       </c>
       <c r="I30" s="13">
-        <v>182937721</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>129289208</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1162,7 +1194,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1172,7 +1204,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1182,9 +1214,9 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1204,7 +1236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1214,7 +1246,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>24</v>
       </c>
@@ -1223,44 +1255,44 @@
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9">
-        <v>164018714</v>
+        <v>-30914995</v>
       </c>
       <c r="F36" s="9">
-        <v>-30914995</v>
+        <v>64203776</v>
       </c>
       <c r="G36" s="9">
-        <v>64203776</v>
+        <v>88793721</v>
       </c>
       <c r="H36" s="9">
-        <v>88793721</v>
+        <v>79226332</v>
       </c>
       <c r="I36" s="9">
-        <v>79226332</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>104274198</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
-        <v>164018714</v>
+        <v>-30914995</v>
       </c>
       <c r="F37" s="13">
-        <v>-30914995</v>
+        <v>64203776</v>
       </c>
       <c r="G37" s="13">
-        <v>64203776</v>
+        <v>88793721</v>
       </c>
       <c r="H37" s="13">
-        <v>88793721</v>
+        <v>79226332</v>
       </c>
       <c r="I37" s="13">
-        <v>79226332</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>104274198</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1270,7 +1302,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1280,7 +1312,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1290,9 +1322,9 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -1312,7 +1344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1322,7 +1354,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>24</v>
       </c>
@@ -1331,44 +1363,44 @@
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9">
-        <v>107231980</v>
+        <v>4213667</v>
       </c>
       <c r="F43" s="9">
-        <v>4213667</v>
+        <v>89978357</v>
       </c>
       <c r="G43" s="9">
-        <v>89978357</v>
+        <v>83039635</v>
       </c>
       <c r="H43" s="9">
-        <v>83039635</v>
+        <v>132874845</v>
       </c>
       <c r="I43" s="9">
-        <v>132874845</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32680570</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13">
-        <v>107231980</v>
+        <v>4213667</v>
       </c>
       <c r="F44" s="13">
-        <v>4213667</v>
+        <v>89978357</v>
       </c>
       <c r="G44" s="13">
-        <v>89978357</v>
+        <v>83039635</v>
       </c>
       <c r="H44" s="13">
-        <v>83039635</v>
+        <v>132874845</v>
       </c>
       <c r="I44" s="13">
-        <v>132874845</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32680570</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1378,7 +1410,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1388,7 +1420,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1398,9 +1430,9 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -1420,7 +1452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1430,7 +1462,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>24</v>
       </c>
@@ -1439,44 +1471,44 @@
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
-        <v>221659196</v>
+        <v>186530534</v>
       </c>
       <c r="F50" s="9">
-        <v>186530534</v>
+        <v>177183635</v>
       </c>
       <c r="G50" s="9">
-        <v>177183635</v>
+        <v>182937721</v>
       </c>
       <c r="H50" s="9">
-        <v>182937721</v>
+        <v>129289208</v>
       </c>
       <c r="I50" s="9">
-        <v>129289208</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>200882836</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13">
-        <v>221659196</v>
+        <v>186530534</v>
       </c>
       <c r="F51" s="13">
-        <v>186530534</v>
+        <v>177183635</v>
       </c>
       <c r="G51" s="13">
-        <v>177183635</v>
+        <v>182937721</v>
       </c>
       <c r="H51" s="13">
-        <v>182937721</v>
+        <v>129289208</v>
       </c>
       <c r="I51" s="13">
-        <v>129289208</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>200882836</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1486,7 +1518,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1496,7 +1528,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1506,9 +1538,9 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -1528,7 +1560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1538,53 +1570,53 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
-        <v>2919530</v>
+        <v>3334402</v>
       </c>
       <c r="F57" s="9">
-        <v>3334402</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>26</v>
+        <v>4365495</v>
+      </c>
+      <c r="G57" s="9">
+        <v>3633774</v>
       </c>
       <c r="H57" s="9">
-        <v>3633774</v>
+        <v>3519045</v>
       </c>
       <c r="I57" s="9">
-        <v>3519045</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3933144</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
-        <v>2919530</v>
+        <v>3334402</v>
       </c>
       <c r="F58" s="13">
-        <v>3334402</v>
+        <v>4365495</v>
       </c>
       <c r="G58" s="13">
-        <v>0</v>
+        <v>3633774</v>
       </c>
       <c r="H58" s="13">
-        <v>3633774</v>
+        <v>3519045</v>
       </c>
       <c r="I58" s="13">
-        <v>3519045</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3933144</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1594,7 +1626,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1604,7 +1636,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1614,9 +1646,9 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -1636,7 +1668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1646,53 +1678,53 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
-        <v>3115382</v>
+        <v>2124329</v>
       </c>
       <c r="F64" s="9">
-        <v>2124329</v>
+        <v>967877</v>
       </c>
       <c r="G64" s="9">
-        <v>967877</v>
+        <v>2903487</v>
       </c>
       <c r="H64" s="9">
-        <v>2903487</v>
+        <v>3899803</v>
       </c>
       <c r="I64" s="9">
-        <v>3899803</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5086978</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13">
-        <v>3115382</v>
+        <v>2124329</v>
       </c>
       <c r="F65" s="13">
-        <v>2124329</v>
+        <v>967877</v>
       </c>
       <c r="G65" s="13">
-        <v>967877</v>
+        <v>2903487</v>
       </c>
       <c r="H65" s="13">
-        <v>2903487</v>
+        <v>3899803</v>
       </c>
       <c r="I65" s="13">
-        <v>3899803</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5086978</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1702,7 +1734,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1712,7 +1744,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1722,9 +1754,9 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -1744,7 +1776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1754,53 +1786,53 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9">
-        <v>2193065</v>
+        <v>1477656</v>
       </c>
       <c r="F71" s="9">
-        <v>1477656</v>
+        <v>2918407</v>
       </c>
       <c r="G71" s="9">
-        <v>2918407</v>
+        <v>3018216</v>
       </c>
       <c r="H71" s="9">
-        <v>3018216</v>
+        <v>3485704</v>
       </c>
       <c r="I71" s="9">
-        <v>3485704</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3593204</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
-        <v>2193065</v>
+        <v>1477656</v>
       </c>
       <c r="F72" s="13">
-        <v>1477656</v>
+        <v>2918407</v>
       </c>
       <c r="G72" s="13">
-        <v>2918407</v>
+        <v>3018216</v>
       </c>
       <c r="H72" s="13">
-        <v>3018216</v>
+        <v>3485704</v>
       </c>
       <c r="I72" s="13">
-        <v>3485704</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3593204</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1810,7 +1842,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1820,7 +1852,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -1830,9 +1862,9 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B76" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -1852,7 +1884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -1862,53 +1894,53 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9">
-        <v>3718822</v>
+        <v>4365495</v>
       </c>
       <c r="F78" s="9">
-        <v>4365495</v>
+        <v>3633774</v>
       </c>
       <c r="G78" s="9">
-        <v>3633774</v>
+        <v>3519045</v>
       </c>
       <c r="H78" s="9">
-        <v>3519045</v>
+        <v>3933144</v>
       </c>
       <c r="I78" s="9">
-        <v>3933144</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5426918</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13">
-        <v>3718822</v>
+        <v>4365495</v>
       </c>
       <c r="F79" s="13">
-        <v>4365495</v>
+        <v>3633774</v>
       </c>
       <c r="G79" s="13">
-        <v>3633774</v>
+        <v>3519045</v>
       </c>
       <c r="H79" s="13">
-        <v>3519045</v>
+        <v>3933144</v>
       </c>
       <c r="I79" s="13">
-        <v>3933144</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5426918</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -1918,7 +1950,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -1928,7 +1960,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -1938,9 +1970,9 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -1960,7 +1992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -1970,31 +2002,31 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
-        <v>17708</v>
+        <v>16777</v>
       </c>
       <c r="F85" s="9">
-        <v>16777</v>
+        <v>23404</v>
       </c>
       <c r="G85" s="9">
-        <v>23404</v>
+        <v>20509</v>
       </c>
       <c r="H85" s="9">
-        <v>20509</v>
+        <v>19236</v>
       </c>
       <c r="I85" s="9">
-        <v>19236</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+        <v>30421</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2004,7 +2036,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2014,7 +2046,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2024,9 +2056,9 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B89" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -2046,7 +2078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2056,31 +2088,31 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9">
-        <v>18994</v>
+        <v>-68715</v>
       </c>
       <c r="F91" s="9">
-        <v>-68715</v>
+        <v>15075</v>
       </c>
       <c r="G91" s="9">
-        <v>15075</v>
+        <v>32699</v>
       </c>
       <c r="H91" s="9">
-        <v>32699</v>
+        <v>49224</v>
       </c>
       <c r="I91" s="9">
-        <v>49224</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+        <v>48785</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2090,7 +2122,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2100,7 +2132,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2110,9 +2142,9 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B95" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -2132,7 +2164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2142,31 +2174,31 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9">
-        <v>20452</v>
+        <v>350682</v>
       </c>
       <c r="F97" s="9">
-        <v>350682</v>
+        <v>32435</v>
       </c>
       <c r="G97" s="9">
-        <v>32435</v>
+        <v>36347</v>
       </c>
       <c r="H97" s="9">
-        <v>36347</v>
+        <v>26233</v>
       </c>
       <c r="I97" s="9">
-        <v>26233</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+        <v>109949</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2176,7 +2208,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2186,7 +2218,7 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2196,9 +2228,9 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B101" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -2218,7 +2250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2228,7 +2260,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>24</v>
       </c>
@@ -2237,22 +2269,22 @@
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9">
-        <v>16777</v>
+        <v>23404</v>
       </c>
       <c r="F103" s="9">
-        <v>23404</v>
+        <v>20509</v>
       </c>
       <c r="G103" s="9">
-        <v>20509</v>
+        <v>19236</v>
       </c>
       <c r="H103" s="9">
-        <v>19236</v>
+        <v>30421</v>
       </c>
       <c r="I103" s="9">
-        <v>30421</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+        <v>27015</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2262,7 +2294,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2272,7 +2304,7 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2282,9 +2314,9 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B107" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -2304,7 +2336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2314,31 +2346,31 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9">
-        <v>1015</v>
+        <v>3777</v>
       </c>
       <c r="F109" s="9">
-        <v>3777</v>
+        <v>4387</v>
       </c>
       <c r="G109" s="9">
-        <v>4387</v>
+        <v>3313</v>
       </c>
       <c r="H109" s="9">
-        <v>3313</v>
+        <v>6098</v>
       </c>
       <c r="I109" s="9">
-        <v>6098</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10564</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
@@ -2358,9 +2390,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
@@ -2380,9 +2412,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
@@ -2402,97 +2434,97 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
       <c r="E113" s="9">
-        <v>-2036</v>
+        <v>40513</v>
       </c>
       <c r="F113" s="9">
-        <v>40513</v>
+        <v>117628</v>
       </c>
       <c r="G113" s="9">
-        <v>117628</v>
+        <v>4622</v>
       </c>
       <c r="H113" s="9">
-        <v>4622</v>
+        <v>34050</v>
       </c>
       <c r="I113" s="9">
-        <v>34050</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18693</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
       <c r="E114" s="11">
-        <v>1131</v>
+        <v>4170</v>
       </c>
       <c r="F114" s="11">
-        <v>4170</v>
+        <v>3227</v>
       </c>
       <c r="G114" s="11">
-        <v>3227</v>
+        <v>3113</v>
       </c>
       <c r="H114" s="11">
-        <v>3113</v>
+        <v>5928</v>
       </c>
       <c r="I114" s="11">
-        <v>5928</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5687</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9">
-        <v>9322</v>
+        <v>11996</v>
       </c>
       <c r="F115" s="9">
-        <v>11996</v>
+        <v>27684</v>
       </c>
       <c r="G115" s="9">
-        <v>27684</v>
+        <v>0</v>
       </c>
       <c r="H115" s="9">
-        <v>0</v>
+        <v>29830</v>
       </c>
       <c r="I115" s="9">
-        <v>29830</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3729</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
-        <v>86149</v>
+        <v>92943</v>
       </c>
       <c r="F116" s="11">
-        <v>92943</v>
+        <v>109367</v>
       </c>
       <c r="G116" s="11">
-        <v>109367</v>
+        <v>181436</v>
       </c>
       <c r="H116" s="11">
-        <v>181436</v>
+        <v>155215</v>
       </c>
       <c r="I116" s="11">
-        <v>155215</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+        <v>154299</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
@@ -2512,120 +2544,120 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
       <c r="E118" s="11">
-        <v>40183</v>
+        <v>79769</v>
       </c>
       <c r="F118" s="11">
-        <v>79769</v>
+        <v>60740</v>
       </c>
       <c r="G118" s="11">
-        <v>60740</v>
+        <v>79940</v>
       </c>
       <c r="H118" s="11">
-        <v>79940</v>
+        <v>120163</v>
       </c>
       <c r="I118" s="11">
-        <v>120163</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+        <v>128403</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C119" s="15"/>
       <c r="D119" s="15"/>
       <c r="E119" s="15">
-        <v>135764</v>
+        <v>233168</v>
       </c>
       <c r="F119" s="15">
-        <v>233168</v>
+        <v>323033</v>
       </c>
       <c r="G119" s="15">
-        <v>323033</v>
+        <v>272424</v>
       </c>
       <c r="H119" s="15">
-        <v>272424</v>
+        <v>351284</v>
       </c>
       <c r="I119" s="15">
-        <v>351284</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>321375</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B123" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C125" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>53</v>
       </c>
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D126" s="11"/>
       <c r="E126" s="11"/>
       <c r="F126" s="11"/>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D130" s="11"/>
       <c r="E130" s="11"/>

--- a/database/industries/shoyande/kimiatec/cost/quarterly.xlsx
+++ b/database/industries/shoyande/kimiatec/cost/quarterly.xlsx
@@ -604,7 +604,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="N23" sqref="D23:N23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/database/industries/shoyande/kimiatec/cost/quarterly.xlsx
+++ b/database/industries/shoyande/kimiatec/cost/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\shoyande\kimiatec\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\kimiatec\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449E929B-4C6B-4617-A223-DBB66E93FE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="64">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -124,6 +125,36 @@
   </si>
   <si>
     <t>مقدار موجودی پایان دوره</t>
+  </si>
+  <si>
+    <t>مبلغ موجودی اول دوره</t>
+  </si>
+  <si>
+    <t>میلیون ریال</t>
+  </si>
+  <si>
+    <t>مبلغ خرید طی دوره</t>
+  </si>
+  <si>
+    <t>مبلغ مصرف طی دوره</t>
+  </si>
+  <si>
+    <t>مبلغ موجودی پایان دوره</t>
+  </si>
+  <si>
+    <t>نرخ موجودی اول دوره</t>
+  </si>
+  <si>
+    <t>کیلوگرم / ریال</t>
+  </si>
+  <si>
+    <t>نرخ خرید طی دوره</t>
+  </si>
+  <si>
+    <t>نرخ مصرف طی دوره</t>
+  </si>
+  <si>
+    <t>نرخ موجودی پایان دوره</t>
   </si>
   <si>
     <t>هزینه سربار</t>
@@ -186,7 +217,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -356,7 +387,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -368,7 +399,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -415,6 +446,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -450,6 +498,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -601,8 +666,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:N130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2085,410 +2150,282 @@
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C57" s="9"/>
       <c r="D57" s="9"/>
-      <c r="E57" s="9">
-        <v>2553</v>
+      <c r="E57" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F57" s="9">
-        <v>3279</v>
+        <v>2498012</v>
       </c>
       <c r="G57" s="9">
-        <v>3776</v>
+        <v>3256390</v>
       </c>
       <c r="H57" s="9">
-        <v>3358</v>
+        <v>3269711</v>
       </c>
       <c r="I57" s="9">
-        <v>1015</v>
+        <v>2919530</v>
       </c>
       <c r="J57" s="9">
-        <v>3777</v>
+        <v>3334402</v>
       </c>
       <c r="K57" s="9">
-        <v>4387</v>
+        <v>4365495</v>
       </c>
       <c r="L57" s="9">
-        <v>3313</v>
+        <v>3633774</v>
       </c>
       <c r="M57" s="9">
-        <v>6098</v>
+        <v>3519045</v>
       </c>
       <c r="N57" s="9">
-        <v>10564</v>
+        <v>3933144</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13">
+        <v>0</v>
+      </c>
+      <c r="F58" s="13">
+        <v>2498012</v>
+      </c>
+      <c r="G58" s="13">
+        <v>3256390</v>
+      </c>
+      <c r="H58" s="13">
+        <v>3269711</v>
+      </c>
+      <c r="I58" s="13">
+        <v>2919530</v>
+      </c>
+      <c r="J58" s="13">
+        <v>3334402</v>
+      </c>
+      <c r="K58" s="13">
+        <v>4365495</v>
+      </c>
+      <c r="L58" s="13">
+        <v>3633774</v>
+      </c>
+      <c r="M58" s="13">
+        <v>3519045</v>
+      </c>
+      <c r="N58" s="13">
+        <v>3933144</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B62" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11">
-        <v>0</v>
-      </c>
-      <c r="F58" s="11">
-        <v>0</v>
-      </c>
-      <c r="G58" s="11">
-        <v>0</v>
-      </c>
-      <c r="H58" s="11">
-        <v>0</v>
-      </c>
-      <c r="I58" s="11">
-        <v>0</v>
-      </c>
-      <c r="J58" s="11">
-        <v>0</v>
-      </c>
-      <c r="K58" s="11">
-        <v>0</v>
-      </c>
-      <c r="L58" s="11">
-        <v>0</v>
-      </c>
-      <c r="M58" s="11">
-        <v>0</v>
-      </c>
-      <c r="N58" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B59" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9">
-        <v>0</v>
-      </c>
-      <c r="F59" s="9">
-        <v>0</v>
-      </c>
-      <c r="G59" s="9">
-        <v>0</v>
-      </c>
-      <c r="H59" s="9">
-        <v>0</v>
-      </c>
-      <c r="I59" s="9">
-        <v>0</v>
-      </c>
-      <c r="J59" s="9">
-        <v>0</v>
-      </c>
-      <c r="K59" s="9">
-        <v>0</v>
-      </c>
-      <c r="L59" s="9">
-        <v>0</v>
-      </c>
-      <c r="M59" s="9">
-        <v>0</v>
-      </c>
-      <c r="N59" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B60" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11">
-        <v>0</v>
-      </c>
-      <c r="F60" s="11">
-        <v>0</v>
-      </c>
-      <c r="G60" s="11">
-        <v>0</v>
-      </c>
-      <c r="H60" s="11">
-        <v>0</v>
-      </c>
-      <c r="I60" s="11">
-        <v>0</v>
-      </c>
-      <c r="J60" s="11">
-        <v>0</v>
-      </c>
-      <c r="K60" s="11">
-        <v>0</v>
-      </c>
-      <c r="L60" s="11">
-        <v>0</v>
-      </c>
-      <c r="M60" s="11">
-        <v>0</v>
-      </c>
-      <c r="N60" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B61" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9">
-        <v>5695</v>
-      </c>
-      <c r="F61" s="9">
-        <v>4987</v>
-      </c>
-      <c r="G61" s="9">
-        <v>49265</v>
-      </c>
-      <c r="H61" s="9">
-        <v>12657</v>
-      </c>
-      <c r="I61" s="9">
-        <v>-2036</v>
-      </c>
-      <c r="J61" s="9">
-        <v>40513</v>
-      </c>
-      <c r="K61" s="9">
-        <v>117628</v>
-      </c>
-      <c r="L61" s="9">
-        <v>4622</v>
-      </c>
-      <c r="M61" s="9">
-        <v>34050</v>
-      </c>
-      <c r="N61" s="9">
-        <v>18693</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B62" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11">
-        <v>2493</v>
-      </c>
-      <c r="F62" s="11">
-        <v>2812</v>
-      </c>
-      <c r="G62" s="11">
-        <v>2895</v>
-      </c>
-      <c r="H62" s="11">
-        <v>3250</v>
-      </c>
-      <c r="I62" s="11">
-        <v>1131</v>
-      </c>
-      <c r="J62" s="11">
-        <v>4170</v>
-      </c>
-      <c r="K62" s="11">
-        <v>3227</v>
-      </c>
-      <c r="L62" s="11">
-        <v>3113</v>
-      </c>
-      <c r="M62" s="11">
-        <v>5928</v>
-      </c>
-      <c r="N62" s="11">
-        <v>5687</v>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B63" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9">
-        <v>7220</v>
-      </c>
-      <c r="F63" s="9">
-        <v>7486</v>
-      </c>
-      <c r="G63" s="9">
-        <v>18137</v>
-      </c>
-      <c r="H63" s="9">
-        <v>10659</v>
-      </c>
-      <c r="I63" s="9">
-        <v>9322</v>
-      </c>
-      <c r="J63" s="9">
-        <v>11996</v>
-      </c>
-      <c r="K63" s="9">
-        <v>27684</v>
-      </c>
-      <c r="L63" s="9">
-        <v>0</v>
-      </c>
-      <c r="M63" s="9">
-        <v>29830</v>
-      </c>
-      <c r="N63" s="9">
-        <v>3729</v>
-      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B64" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11">
-        <v>48682</v>
-      </c>
-      <c r="F64" s="11">
-        <v>62736</v>
-      </c>
-      <c r="G64" s="11">
-        <v>70185</v>
-      </c>
-      <c r="H64" s="11">
-        <v>102923</v>
-      </c>
-      <c r="I64" s="11">
-        <v>86149</v>
-      </c>
-      <c r="J64" s="11">
-        <v>92943</v>
-      </c>
-      <c r="K64" s="11">
-        <v>109367</v>
-      </c>
-      <c r="L64" s="11">
-        <v>181436</v>
-      </c>
-      <c r="M64" s="11">
-        <v>155215</v>
-      </c>
-      <c r="N64" s="11">
-        <v>154299</v>
+      <c r="B64" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9">
+        <v>2254883</v>
+      </c>
+      <c r="F64" s="9">
+        <v>2373920</v>
+      </c>
+      <c r="G64" s="9">
+        <v>2710602</v>
+      </c>
+      <c r="H64" s="9">
+        <v>1398735</v>
+      </c>
+      <c r="I64" s="9">
+        <v>3115382</v>
+      </c>
+      <c r="J64" s="9">
+        <v>2124329</v>
+      </c>
+      <c r="K64" s="9">
+        <v>967877</v>
+      </c>
+      <c r="L64" s="9">
+        <v>2903487</v>
+      </c>
+      <c r="M64" s="9">
+        <v>3899803</v>
+      </c>
+      <c r="N64" s="9">
+        <v>5086978</v>
       </c>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B65" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9">
-        <v>0</v>
-      </c>
-      <c r="F65" s="9">
-        <v>0</v>
-      </c>
-      <c r="G65" s="9">
-        <v>0</v>
-      </c>
-      <c r="H65" s="9">
-        <v>0</v>
-      </c>
-      <c r="I65" s="9">
-        <v>0</v>
-      </c>
-      <c r="J65" s="9">
-        <v>0</v>
-      </c>
-      <c r="K65" s="9">
-        <v>0</v>
-      </c>
-      <c r="L65" s="9">
-        <v>0</v>
-      </c>
-      <c r="M65" s="9">
-        <v>0</v>
-      </c>
-      <c r="N65" s="9">
-        <v>0</v>
+      <c r="B65" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13">
+        <v>2254883</v>
+      </c>
+      <c r="F65" s="13">
+        <v>2373920</v>
+      </c>
+      <c r="G65" s="13">
+        <v>2710602</v>
+      </c>
+      <c r="H65" s="13">
+        <v>1398735</v>
+      </c>
+      <c r="I65" s="13">
+        <v>3115382</v>
+      </c>
+      <c r="J65" s="13">
+        <v>2124329</v>
+      </c>
+      <c r="K65" s="13">
+        <v>967877</v>
+      </c>
+      <c r="L65" s="13">
+        <v>2903487</v>
+      </c>
+      <c r="M65" s="13">
+        <v>3899803</v>
+      </c>
+      <c r="N65" s="13">
+        <v>5086978</v>
       </c>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B66" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11">
-        <v>30090</v>
-      </c>
-      <c r="F66" s="11">
-        <v>45539</v>
-      </c>
-      <c r="G66" s="11">
-        <v>63876</v>
-      </c>
-      <c r="H66" s="11">
-        <v>24015</v>
-      </c>
-      <c r="I66" s="11">
-        <v>40183</v>
-      </c>
-      <c r="J66" s="11">
-        <v>79769</v>
-      </c>
-      <c r="K66" s="11">
-        <v>60740</v>
-      </c>
-      <c r="L66" s="11">
-        <v>79940</v>
-      </c>
-      <c r="M66" s="11">
-        <v>120163</v>
-      </c>
-      <c r="N66" s="11">
-        <v>128403</v>
-      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B67" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15">
-        <v>96733</v>
-      </c>
-      <c r="F67" s="15">
-        <v>126839</v>
-      </c>
-      <c r="G67" s="15">
-        <v>208134</v>
-      </c>
-      <c r="H67" s="15">
-        <v>156862</v>
-      </c>
-      <c r="I67" s="15">
-        <v>135764</v>
-      </c>
-      <c r="J67" s="15">
-        <v>233168</v>
-      </c>
-      <c r="K67" s="15">
-        <v>323033</v>
-      </c>
-      <c r="L67" s="15">
-        <v>272424</v>
-      </c>
-      <c r="M67" s="15">
-        <v>351284</v>
-      </c>
-      <c r="N67" s="15">
-        <v>321375</v>
-      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
@@ -2505,20 +2442,42 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
+    <row r="69" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B69" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M69" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N69" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
@@ -2535,48 +2494,88 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B71" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B71" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9">
+        <v>1329586</v>
+      </c>
+      <c r="F71" s="9">
+        <v>1615542</v>
+      </c>
+      <c r="G71" s="9">
+        <v>2723341</v>
+      </c>
+      <c r="H71" s="9">
+        <v>1748916</v>
+      </c>
+      <c r="I71" s="9">
+        <v>2193065</v>
+      </c>
+      <c r="J71" s="9">
+        <v>1477656</v>
+      </c>
+      <c r="K71" s="9">
+        <v>2918407</v>
+      </c>
+      <c r="L71" s="9">
+        <v>3018216</v>
+      </c>
+      <c r="M71" s="9">
+        <v>3485704</v>
+      </c>
+      <c r="N71" s="9">
+        <v>3593204</v>
+      </c>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
+      <c r="B72" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13">
+        <v>1329586</v>
+      </c>
+      <c r="F72" s="13">
+        <v>1615542</v>
+      </c>
+      <c r="G72" s="13">
+        <v>2723341</v>
+      </c>
+      <c r="H72" s="13">
+        <v>1748916</v>
+      </c>
+      <c r="I72" s="13">
+        <v>2193065</v>
+      </c>
+      <c r="J72" s="13">
+        <v>1477656</v>
+      </c>
+      <c r="K72" s="13">
+        <v>2918407</v>
+      </c>
+      <c r="L72" s="13">
+        <v>3018216</v>
+      </c>
+      <c r="M72" s="13">
+        <v>3485704</v>
+      </c>
+      <c r="N72" s="13">
+        <v>3593204</v>
+      </c>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B73" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -2587,15 +2586,11 @@
       <c r="N73" s="1"/>
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B74" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -2606,15 +2601,11 @@
       <c r="N74" s="1"/>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B75" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -2624,38 +2615,1256 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B76" s="10" t="s">
+    <row r="76" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B76" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L76" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M76" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N76" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B78" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9">
+        <v>2498012</v>
+      </c>
+      <c r="F78" s="9">
+        <v>3256390</v>
+      </c>
+      <c r="G78" s="9">
+        <v>3269711</v>
+      </c>
+      <c r="H78" s="9">
+        <v>2919530</v>
+      </c>
+      <c r="I78" s="9">
+        <v>3718822</v>
+      </c>
+      <c r="J78" s="9">
+        <v>4365495</v>
+      </c>
+      <c r="K78" s="9">
+        <v>3633774</v>
+      </c>
+      <c r="L78" s="9">
+        <v>3519045</v>
+      </c>
+      <c r="M78" s="9">
+        <v>3933144</v>
+      </c>
+      <c r="N78" s="9">
+        <v>5426918</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B79" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13">
+        <v>2498012</v>
+      </c>
+      <c r="F79" s="13">
+        <v>3256390</v>
+      </c>
+      <c r="G79" s="13">
+        <v>3269711</v>
+      </c>
+      <c r="H79" s="13">
+        <v>2919530</v>
+      </c>
+      <c r="I79" s="13">
+        <v>3718822</v>
+      </c>
+      <c r="J79" s="13">
+        <v>4365495</v>
+      </c>
+      <c r="K79" s="13">
+        <v>3633774</v>
+      </c>
+      <c r="L79" s="13">
+        <v>3519045</v>
+      </c>
+      <c r="M79" s="13">
+        <v>3933144</v>
+      </c>
+      <c r="N79" s="13">
+        <v>5426918</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B83" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J83" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L83" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M83" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N83" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B85" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F85" s="9">
+        <v>13680</v>
+      </c>
+      <c r="G85" s="9">
+        <v>15190</v>
+      </c>
+      <c r="H85" s="9">
+        <v>19222</v>
+      </c>
+      <c r="I85" s="9">
+        <v>17708</v>
+      </c>
+      <c r="J85" s="9">
+        <v>16777</v>
+      </c>
+      <c r="K85" s="9">
+        <v>23404</v>
+      </c>
+      <c r="L85" s="9">
+        <v>20509</v>
+      </c>
+      <c r="M85" s="9">
+        <v>19236</v>
+      </c>
+      <c r="N85" s="9">
+        <v>30421</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B89" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J89" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K89" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L89" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M89" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N89" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B91" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9">
+        <v>20122</v>
+      </c>
+      <c r="F91" s="9">
+        <v>22655</v>
+      </c>
+      <c r="G91" s="9">
+        <v>31104</v>
+      </c>
+      <c r="H91" s="9">
+        <v>28815</v>
+      </c>
+      <c r="I91" s="9">
+        <v>18994</v>
+      </c>
+      <c r="J91" s="9">
+        <v>-68715</v>
+      </c>
+      <c r="K91" s="9">
+        <v>15075</v>
+      </c>
+      <c r="L91" s="9">
+        <v>32699</v>
+      </c>
+      <c r="M91" s="9">
+        <v>49224</v>
+      </c>
+      <c r="N91" s="9">
+        <v>48785</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+    </row>
+    <row r="95" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B95" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I95" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J95" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K95" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L95" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M95" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N95" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B97" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9">
+        <v>16883</v>
+      </c>
+      <c r="F97" s="9">
+        <v>22128</v>
+      </c>
+      <c r="G97" s="9">
+        <v>41355</v>
+      </c>
+      <c r="H97" s="9">
+        <v>32524</v>
+      </c>
+      <c r="I97" s="9">
+        <v>20452</v>
+      </c>
+      <c r="J97" s="9">
+        <v>350682</v>
+      </c>
+      <c r="K97" s="9">
+        <v>32435</v>
+      </c>
+      <c r="L97" s="9">
+        <v>36347</v>
+      </c>
+      <c r="M97" s="9">
+        <v>26233</v>
+      </c>
+      <c r="N97" s="9">
+        <v>109949</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+    </row>
+    <row r="101" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B101" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J101" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K101" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L101" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M101" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N101" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B103" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I103" s="9">
+        <v>16777</v>
+      </c>
+      <c r="J103" s="9">
+        <v>23404</v>
+      </c>
+      <c r="K103" s="9">
+        <v>20509</v>
+      </c>
+      <c r="L103" s="9">
+        <v>19236</v>
+      </c>
+      <c r="M103" s="9">
+        <v>30421</v>
+      </c>
+      <c r="N103" s="9">
+        <v>27015</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+    </row>
+    <row r="107" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B107" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I107" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J107" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K107" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L107" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M107" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N107" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B109" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9">
+        <v>2553</v>
+      </c>
+      <c r="F109" s="9">
+        <v>3279</v>
+      </c>
+      <c r="G109" s="9">
+        <v>3776</v>
+      </c>
+      <c r="H109" s="9">
+        <v>3358</v>
+      </c>
+      <c r="I109" s="9">
+        <v>1015</v>
+      </c>
+      <c r="J109" s="9">
+        <v>3777</v>
+      </c>
+      <c r="K109" s="9">
+        <v>4387</v>
+      </c>
+      <c r="L109" s="9">
+        <v>3313</v>
+      </c>
+      <c r="M109" s="9">
+        <v>6098</v>
+      </c>
+      <c r="N109" s="9">
+        <v>10564</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B110" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11">
+        <v>0</v>
+      </c>
+      <c r="F110" s="11">
+        <v>0</v>
+      </c>
+      <c r="G110" s="11">
+        <v>0</v>
+      </c>
+      <c r="H110" s="11">
+        <v>0</v>
+      </c>
+      <c r="I110" s="11">
+        <v>0</v>
+      </c>
+      <c r="J110" s="11">
+        <v>0</v>
+      </c>
+      <c r="K110" s="11">
+        <v>0</v>
+      </c>
+      <c r="L110" s="11">
+        <v>0</v>
+      </c>
+      <c r="M110" s="11">
+        <v>0</v>
+      </c>
+      <c r="N110" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B111" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9">
+        <v>0</v>
+      </c>
+      <c r="F111" s="9">
+        <v>0</v>
+      </c>
+      <c r="G111" s="9">
+        <v>0</v>
+      </c>
+      <c r="H111" s="9">
+        <v>0</v>
+      </c>
+      <c r="I111" s="9">
+        <v>0</v>
+      </c>
+      <c r="J111" s="9">
+        <v>0</v>
+      </c>
+      <c r="K111" s="9">
+        <v>0</v>
+      </c>
+      <c r="L111" s="9">
+        <v>0</v>
+      </c>
+      <c r="M111" s="9">
+        <v>0</v>
+      </c>
+      <c r="N111" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B112" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11">
+        <v>0</v>
+      </c>
+      <c r="F112" s="11">
+        <v>0</v>
+      </c>
+      <c r="G112" s="11">
+        <v>0</v>
+      </c>
+      <c r="H112" s="11">
+        <v>0</v>
+      </c>
+      <c r="I112" s="11">
+        <v>0</v>
+      </c>
+      <c r="J112" s="11">
+        <v>0</v>
+      </c>
+      <c r="K112" s="11">
+        <v>0</v>
+      </c>
+      <c r="L112" s="11">
+        <v>0</v>
+      </c>
+      <c r="M112" s="11">
+        <v>0</v>
+      </c>
+      <c r="N112" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B113" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9">
+        <v>5695</v>
+      </c>
+      <c r="F113" s="9">
+        <v>4987</v>
+      </c>
+      <c r="G113" s="9">
+        <v>49265</v>
+      </c>
+      <c r="H113" s="9">
+        <v>12657</v>
+      </c>
+      <c r="I113" s="9">
+        <v>-2036</v>
+      </c>
+      <c r="J113" s="9">
+        <v>40513</v>
+      </c>
+      <c r="K113" s="9">
+        <v>117628</v>
+      </c>
+      <c r="L113" s="9">
+        <v>4622</v>
+      </c>
+      <c r="M113" s="9">
+        <v>34050</v>
+      </c>
+      <c r="N113" s="9">
+        <v>18693</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B114" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C76" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B77" s="8" t="s">
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11">
+        <v>2493</v>
+      </c>
+      <c r="F114" s="11">
+        <v>2812</v>
+      </c>
+      <c r="G114" s="11">
+        <v>2895</v>
+      </c>
+      <c r="H114" s="11">
+        <v>3250</v>
+      </c>
+      <c r="I114" s="11">
+        <v>1131</v>
+      </c>
+      <c r="J114" s="11">
+        <v>4170</v>
+      </c>
+      <c r="K114" s="11">
+        <v>3227</v>
+      </c>
+      <c r="L114" s="11">
+        <v>3113</v>
+      </c>
+      <c r="M114" s="11">
+        <v>5928</v>
+      </c>
+      <c r="N114" s="11">
+        <v>5687</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B115" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C77" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B78" s="10" t="s">
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9">
+        <v>7220</v>
+      </c>
+      <c r="F115" s="9">
+        <v>7486</v>
+      </c>
+      <c r="G115" s="9">
+        <v>18137</v>
+      </c>
+      <c r="H115" s="9">
+        <v>10659</v>
+      </c>
+      <c r="I115" s="9">
+        <v>9322</v>
+      </c>
+      <c r="J115" s="9">
+        <v>11996</v>
+      </c>
+      <c r="K115" s="9">
+        <v>27684</v>
+      </c>
+      <c r="L115" s="9">
+        <v>0</v>
+      </c>
+      <c r="M115" s="9">
+        <v>29830</v>
+      </c>
+      <c r="N115" s="9">
+        <v>3729</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B116" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C78" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11">
+        <v>48682</v>
+      </c>
+      <c r="F116" s="11">
+        <v>62736</v>
+      </c>
+      <c r="G116" s="11">
+        <v>70185</v>
+      </c>
+      <c r="H116" s="11">
+        <v>102923</v>
+      </c>
+      <c r="I116" s="11">
+        <v>86149</v>
+      </c>
+      <c r="J116" s="11">
+        <v>92943</v>
+      </c>
+      <c r="K116" s="11">
+        <v>109367</v>
+      </c>
+      <c r="L116" s="11">
+        <v>181436</v>
+      </c>
+      <c r="M116" s="11">
+        <v>155215</v>
+      </c>
+      <c r="N116" s="11">
+        <v>154299</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B117" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9">
+        <v>0</v>
+      </c>
+      <c r="F117" s="9">
+        <v>0</v>
+      </c>
+      <c r="G117" s="9">
+        <v>0</v>
+      </c>
+      <c r="H117" s="9">
+        <v>0</v>
+      </c>
+      <c r="I117" s="9">
+        <v>0</v>
+      </c>
+      <c r="J117" s="9">
+        <v>0</v>
+      </c>
+      <c r="K117" s="9">
+        <v>0</v>
+      </c>
+      <c r="L117" s="9">
+        <v>0</v>
+      </c>
+      <c r="M117" s="9">
+        <v>0</v>
+      </c>
+      <c r="N117" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B118" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11">
+        <v>30090</v>
+      </c>
+      <c r="F118" s="11">
+        <v>45539</v>
+      </c>
+      <c r="G118" s="11">
+        <v>63876</v>
+      </c>
+      <c r="H118" s="11">
+        <v>24015</v>
+      </c>
+      <c r="I118" s="11">
+        <v>40183</v>
+      </c>
+      <c r="J118" s="11">
+        <v>79769</v>
+      </c>
+      <c r="K118" s="11">
+        <v>60740</v>
+      </c>
+      <c r="L118" s="11">
+        <v>79940</v>
+      </c>
+      <c r="M118" s="11">
+        <v>120163</v>
+      </c>
+      <c r="N118" s="11">
+        <v>128403</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B119" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119" s="15"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="15">
+        <v>96733</v>
+      </c>
+      <c r="F119" s="15">
+        <v>126839</v>
+      </c>
+      <c r="G119" s="15">
+        <v>208134</v>
+      </c>
+      <c r="H119" s="15">
+        <v>156862</v>
+      </c>
+      <c r="I119" s="15">
+        <v>135764</v>
+      </c>
+      <c r="J119" s="15">
+        <v>233168</v>
+      </c>
+      <c r="K119" s="15">
+        <v>323033</v>
+      </c>
+      <c r="L119" s="15">
+        <v>272424</v>
+      </c>
+      <c r="M119" s="15">
+        <v>351284</v>
+      </c>
+      <c r="N119" s="15">
+        <v>321375</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B123" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B125" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B126" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D126" s="11"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="11"/>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B127" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B128" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B129" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B130" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/shoyande/kimiatec/cost/quarterly.xlsx
+++ b/database/industries/shoyande/kimiatec/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\kimiatec\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\kimiatec\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449E929B-4C6B-4617-A223-DBB66E93FE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841CE1FD-7EAA-4719-B617-7BE1AC7B3A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="64">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
@@ -115,46 +115,46 @@
     <t>کیلوگرم</t>
   </si>
   <si>
+    <t>مقدار خرید طی دوره</t>
+  </si>
+  <si>
+    <t>مقدار مصرف طی دوره</t>
+  </si>
+  <si>
+    <t>مقدار موجودی پایان دوره</t>
+  </si>
+  <si>
+    <t>مبلغ موجودی اول دوره</t>
+  </si>
+  <si>
+    <t>میلیون ریال</t>
+  </si>
+  <si>
+    <t>مبلغ خرید طی دوره</t>
+  </si>
+  <si>
+    <t>مبلغ مصرف طی دوره</t>
+  </si>
+  <si>
+    <t>مبلغ موجودی پایان دوره</t>
+  </si>
+  <si>
+    <t>نرخ موجودی اول دوره</t>
+  </si>
+  <si>
+    <t>کیلوگرم / ریال</t>
+  </si>
+  <si>
+    <t>نرخ خرید طی دوره</t>
+  </si>
+  <si>
+    <t>نرخ مصرف طی دوره</t>
+  </si>
+  <si>
+    <t>نرخ موجودی پایان دوره</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>مقدار خرید طی دوره</t>
-  </si>
-  <si>
-    <t>مقدار مصرف طی دوره</t>
-  </si>
-  <si>
-    <t>مقدار موجودی پایان دوره</t>
-  </si>
-  <si>
-    <t>مبلغ موجودی اول دوره</t>
-  </si>
-  <si>
-    <t>میلیون ریال</t>
-  </si>
-  <si>
-    <t>مبلغ خرید طی دوره</t>
-  </si>
-  <si>
-    <t>مبلغ مصرف طی دوره</t>
-  </si>
-  <si>
-    <t>مبلغ موجودی پایان دوره</t>
-  </si>
-  <si>
-    <t>نرخ موجودی اول دوره</t>
-  </si>
-  <si>
-    <t>کیلوگرم / ریال</t>
-  </si>
-  <si>
-    <t>نرخ خرید طی دوره</t>
-  </si>
-  <si>
-    <t>نرخ مصرف طی دوره</t>
-  </si>
-  <si>
-    <t>نرخ موجودی پایان دوره</t>
   </si>
   <si>
     <t>هزینه سربار</t>
@@ -671,12 +671,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -691,7 +691,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -708,7 +708,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -725,7 +725,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -740,7 +740,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -757,7 +757,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -774,7 +774,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -789,7 +789,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -826,7 +826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -841,155 +841,155 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>1329586</v>
+        <v>1615542</v>
       </c>
       <c r="F10" s="9">
-        <v>1615542</v>
+        <v>2846366</v>
       </c>
       <c r="G10" s="9">
-        <v>2846366</v>
+        <v>1748916</v>
       </c>
       <c r="H10" s="9">
-        <v>1748916</v>
+        <v>2193065</v>
       </c>
       <c r="I10" s="9">
-        <v>2193065</v>
+        <v>1477656</v>
       </c>
       <c r="J10" s="9">
-        <v>1477656</v>
+        <v>2918407</v>
       </c>
       <c r="K10" s="9">
-        <v>2918407</v>
+        <v>3018216</v>
       </c>
       <c r="L10" s="9">
-        <v>3018216</v>
+        <v>3485704</v>
       </c>
       <c r="M10" s="9">
-        <v>3485704</v>
+        <v>3593204</v>
       </c>
       <c r="N10" s="9">
-        <v>3593204</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3875192</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>54871</v>
+        <v>65883</v>
       </c>
       <c r="F11" s="11">
-        <v>65883</v>
+        <v>63416</v>
       </c>
       <c r="G11" s="11">
-        <v>63416</v>
+        <v>73719</v>
       </c>
       <c r="H11" s="11">
-        <v>73719</v>
+        <v>52360</v>
       </c>
       <c r="I11" s="11">
-        <v>52360</v>
+        <v>54801</v>
       </c>
       <c r="J11" s="11">
-        <v>54801</v>
+        <v>46383</v>
       </c>
       <c r="K11" s="11">
-        <v>46383</v>
+        <v>89291</v>
       </c>
       <c r="L11" s="11">
-        <v>89291</v>
+        <v>81762</v>
       </c>
       <c r="M11" s="11">
-        <v>81762</v>
+        <v>84777</v>
       </c>
       <c r="N11" s="11">
-        <v>84777</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>105278</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>96733</v>
+        <v>126839</v>
       </c>
       <c r="F12" s="9">
-        <v>126839</v>
+        <v>208134</v>
       </c>
       <c r="G12" s="9">
-        <v>208134</v>
+        <v>156862</v>
       </c>
       <c r="H12" s="9">
-        <v>156862</v>
+        <v>135764</v>
       </c>
       <c r="I12" s="9">
-        <v>135764</v>
+        <v>233168</v>
       </c>
       <c r="J12" s="9">
-        <v>233168</v>
+        <v>323033</v>
       </c>
       <c r="K12" s="9">
-        <v>323033</v>
+        <v>272424</v>
       </c>
       <c r="L12" s="9">
-        <v>272424</v>
+        <v>351284</v>
       </c>
       <c r="M12" s="9">
-        <v>351284</v>
+        <v>321375</v>
       </c>
       <c r="N12" s="9">
-        <v>321375</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>674470</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>1481190</v>
+        <v>1808264</v>
       </c>
       <c r="F13" s="13">
-        <v>1808264</v>
+        <v>3117916</v>
       </c>
       <c r="G13" s="13">
-        <v>3117916</v>
+        <v>1979497</v>
       </c>
       <c r="H13" s="13">
-        <v>1979497</v>
+        <v>2381189</v>
       </c>
       <c r="I13" s="13">
-        <v>2381189</v>
+        <v>1765625</v>
       </c>
       <c r="J13" s="13">
-        <v>1765625</v>
+        <v>3287823</v>
       </c>
       <c r="K13" s="13">
-        <v>3287823</v>
+        <v>3379931</v>
       </c>
       <c r="L13" s="13">
-        <v>3379931</v>
+        <v>3918750</v>
       </c>
       <c r="M13" s="13">
-        <v>3918750</v>
+        <v>3999356</v>
       </c>
       <c r="N13" s="13">
-        <v>3999356</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4654940</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1026,44 +1026,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>1481190</v>
+        <v>1808264</v>
       </c>
       <c r="F15" s="13">
-        <v>1808264</v>
+        <v>3117916</v>
       </c>
       <c r="G15" s="13">
-        <v>3117916</v>
+        <v>1979497</v>
       </c>
       <c r="H15" s="13">
-        <v>1979497</v>
+        <v>2381189</v>
       </c>
       <c r="I15" s="13">
-        <v>2381189</v>
+        <v>1765625</v>
       </c>
       <c r="J15" s="13">
-        <v>1765625</v>
+        <v>3287823</v>
       </c>
       <c r="K15" s="13">
-        <v>3287823</v>
+        <v>3379931</v>
       </c>
       <c r="L15" s="13">
-        <v>3379931</v>
+        <v>3918750</v>
       </c>
       <c r="M15" s="13">
-        <v>3918750</v>
+        <v>3999356</v>
       </c>
       <c r="N15" s="13">
-        <v>3999356</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4654940</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1137,44 +1137,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>1481190</v>
+        <v>1808264</v>
       </c>
       <c r="F18" s="15">
-        <v>1808264</v>
+        <v>3117916</v>
       </c>
       <c r="G18" s="15">
-        <v>3117916</v>
+        <v>1979497</v>
       </c>
       <c r="H18" s="15">
-        <v>1979497</v>
+        <v>2381189</v>
       </c>
       <c r="I18" s="15">
-        <v>2381189</v>
+        <v>1765625</v>
       </c>
       <c r="J18" s="15">
-        <v>1765625</v>
+        <v>3287823</v>
       </c>
       <c r="K18" s="15">
-        <v>3287823</v>
+        <v>3379931</v>
       </c>
       <c r="L18" s="15">
-        <v>3379931</v>
+        <v>3918750</v>
       </c>
       <c r="M18" s="15">
-        <v>3918750</v>
+        <v>3999356</v>
       </c>
       <c r="N18" s="15">
-        <v>3999356</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4654940</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
@@ -1184,108 +1184,108 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>1017513</v>
       </c>
       <c r="G19" s="11">
-        <v>521465</v>
+        <v>1292327</v>
       </c>
       <c r="H19" s="11">
-        <v>1292327</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <v>0</v>
       </c>
       <c r="J19" s="11">
-        <v>0</v>
+        <v>1395617</v>
       </c>
       <c r="K19" s="11">
-        <v>447261</v>
+        <v>1620696</v>
       </c>
       <c r="L19" s="11">
-        <v>1620696</v>
+        <v>1923104</v>
       </c>
       <c r="M19" s="11">
-        <v>1923104</v>
+        <v>2428481</v>
       </c>
       <c r="N19" s="11">
-        <v>2428481</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2245627</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-20654</v>
+        <v>-521465</v>
       </c>
       <c r="F20" s="9">
-        <v>-521465</v>
+        <v>-1415352</v>
       </c>
       <c r="G20" s="9">
-        <v>-1415352</v>
+        <v>-1586951</v>
       </c>
       <c r="H20" s="9">
-        <v>-1586951</v>
+        <v>-255927</v>
       </c>
       <c r="I20" s="9">
-        <v>-255927</v>
+        <v>447261</v>
       </c>
       <c r="J20" s="9">
-        <v>447261</v>
+        <v>-1620696</v>
       </c>
       <c r="K20" s="9">
-        <v>-1620696</v>
+        <v>-1923104</v>
       </c>
       <c r="L20" s="9">
-        <v>-1923104</v>
+        <v>-2428481</v>
       </c>
       <c r="M20" s="9">
-        <v>-2428481</v>
+        <v>-2245627</v>
       </c>
       <c r="N20" s="9">
-        <v>-2245627</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2409614</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>1460536</v>
+        <v>1286799</v>
       </c>
       <c r="F21" s="13">
-        <v>1286799</v>
+        <v>2720077</v>
       </c>
       <c r="G21" s="13">
-        <v>2720077</v>
+        <v>1684873</v>
       </c>
       <c r="H21" s="13">
-        <v>1684873</v>
+        <v>2125262</v>
       </c>
       <c r="I21" s="13">
-        <v>2125262</v>
+        <v>2212886</v>
       </c>
       <c r="J21" s="13">
-        <v>2212886</v>
+        <v>3185769</v>
       </c>
       <c r="K21" s="13">
-        <v>3185769</v>
+        <v>3077523</v>
       </c>
       <c r="L21" s="13">
-        <v>3077523</v>
+        <v>3413373</v>
       </c>
       <c r="M21" s="13">
-        <v>3413373</v>
+        <v>4182210</v>
       </c>
       <c r="N21" s="13">
-        <v>4182210</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4490953</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
@@ -1322,44 +1322,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>1460536</v>
+        <v>1286799</v>
       </c>
       <c r="F23" s="13">
-        <v>1286799</v>
+        <v>2720077</v>
       </c>
       <c r="G23" s="13">
-        <v>2720077</v>
+        <v>1684873</v>
       </c>
       <c r="H23" s="13">
-        <v>1684873</v>
+        <v>2125262</v>
       </c>
       <c r="I23" s="13">
-        <v>2125262</v>
+        <v>2212886</v>
       </c>
       <c r="J23" s="13">
-        <v>2212886</v>
+        <v>3185769</v>
       </c>
       <c r="K23" s="13">
-        <v>3185769</v>
+        <v>3077523</v>
       </c>
       <c r="L23" s="13">
-        <v>3077523</v>
+        <v>3413373</v>
       </c>
       <c r="M23" s="13">
-        <v>3413373</v>
+        <v>4182210</v>
       </c>
       <c r="N23" s="13">
-        <v>4182210</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4490953</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1374,7 +1374,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1389,7 +1389,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1404,7 +1404,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1456,7 +1456,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
@@ -1464,75 +1464,75 @@
         <v>30</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
-        <v>31</v>
+      <c r="E29" s="9">
+        <v>182599278</v>
       </c>
       <c r="F29" s="9">
-        <v>182599278</v>
+        <v>214376823</v>
       </c>
       <c r="G29" s="9">
-        <v>214376823</v>
+        <v>170102852</v>
       </c>
       <c r="H29" s="9">
-        <v>170102852</v>
+        <v>164872462</v>
       </c>
       <c r="I29" s="9">
-        <v>164872462</v>
+        <v>221659196</v>
       </c>
       <c r="J29" s="9">
-        <v>221659196</v>
+        <v>186530534</v>
       </c>
       <c r="K29" s="9">
-        <v>186530534</v>
+        <v>177183635</v>
       </c>
       <c r="L29" s="9">
-        <v>177183635</v>
+        <v>182937721</v>
       </c>
       <c r="M29" s="9">
-        <v>182937721</v>
+        <v>129289208</v>
       </c>
       <c r="N29" s="9">
-        <v>129289208</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>200882836</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13">
-        <v>0</v>
+        <v>182599278</v>
       </c>
       <c r="F30" s="13">
-        <v>182599278</v>
+        <v>214376823</v>
       </c>
       <c r="G30" s="13">
-        <v>214376823</v>
+        <v>170102852</v>
       </c>
       <c r="H30" s="13">
-        <v>170102852</v>
+        <v>164872462</v>
       </c>
       <c r="I30" s="13">
-        <v>164872462</v>
+        <v>221659196</v>
       </c>
       <c r="J30" s="13">
-        <v>221659196</v>
+        <v>186530534</v>
       </c>
       <c r="K30" s="13">
-        <v>186530534</v>
+        <v>177183635</v>
       </c>
       <c r="L30" s="13">
-        <v>177183635</v>
+        <v>182937721</v>
       </c>
       <c r="M30" s="13">
-        <v>182937721</v>
+        <v>129289208</v>
       </c>
       <c r="N30" s="13">
-        <v>129289208</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>200882836</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1547,7 +1547,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1562,7 +1562,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1577,9 +1577,9 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1614,7 +1614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1629,7 +1629,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>29</v>
       </c>
@@ -1638,74 +1638,74 @@
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9">
-        <v>104570792</v>
+        <v>104787915</v>
       </c>
       <c r="F36" s="9">
-        <v>104787915</v>
+        <v>87145678</v>
       </c>
       <c r="G36" s="9">
-        <v>87145678</v>
+        <v>48542135</v>
       </c>
       <c r="H36" s="9">
-        <v>48542135</v>
+        <v>164018714</v>
       </c>
       <c r="I36" s="9">
-        <v>164018714</v>
+        <v>-30914995</v>
       </c>
       <c r="J36" s="9">
-        <v>-30914995</v>
+        <v>64203776</v>
       </c>
       <c r="K36" s="9">
-        <v>64203776</v>
+        <v>88793721</v>
       </c>
       <c r="L36" s="9">
-        <v>88793721</v>
+        <v>79226332</v>
       </c>
       <c r="M36" s="9">
-        <v>79226332</v>
+        <v>104274198</v>
       </c>
       <c r="N36" s="9">
-        <v>104274198</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>70688218</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
-        <v>104570792</v>
+        <v>104787915</v>
       </c>
       <c r="F37" s="13">
-        <v>104787915</v>
+        <v>87145678</v>
       </c>
       <c r="G37" s="13">
-        <v>87145678</v>
+        <v>48542135</v>
       </c>
       <c r="H37" s="13">
-        <v>48542135</v>
+        <v>164018714</v>
       </c>
       <c r="I37" s="13">
-        <v>164018714</v>
+        <v>-30914995</v>
       </c>
       <c r="J37" s="13">
-        <v>-30914995</v>
+        <v>64203776</v>
       </c>
       <c r="K37" s="13">
-        <v>64203776</v>
+        <v>88793721</v>
       </c>
       <c r="L37" s="13">
-        <v>88793721</v>
+        <v>79226332</v>
       </c>
       <c r="M37" s="13">
-        <v>79226332</v>
+        <v>104274198</v>
       </c>
       <c r="N37" s="13">
-        <v>104274198</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <v>70688218</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1720,7 +1720,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1735,7 +1735,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1750,9 +1750,9 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -1787,7 +1787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1802,7 +1802,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>29</v>
       </c>
@@ -1811,74 +1811,74 @@
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9">
-        <v>76246457</v>
+        <v>73010370</v>
       </c>
       <c r="F43" s="9">
-        <v>73010370</v>
+        <v>65852204</v>
       </c>
       <c r="G43" s="9">
-        <v>65852204</v>
+        <v>53772525</v>
       </c>
       <c r="H43" s="9">
-        <v>53772525</v>
+        <v>107231980</v>
       </c>
       <c r="I43" s="9">
-        <v>107231980</v>
+        <v>4213667</v>
       </c>
       <c r="J43" s="9">
-        <v>4213667</v>
+        <v>89978357</v>
       </c>
       <c r="K43" s="9">
-        <v>89978357</v>
+        <v>83039635</v>
       </c>
       <c r="L43" s="9">
-        <v>83039635</v>
+        <v>132874845</v>
       </c>
       <c r="M43" s="9">
-        <v>132874845</v>
+        <v>32680570</v>
       </c>
       <c r="N43" s="9">
-        <v>32680570</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+        <v>89811191</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13">
-        <v>76246457</v>
+        <v>73010370</v>
       </c>
       <c r="F44" s="13">
-        <v>73010370</v>
+        <v>65852204</v>
       </c>
       <c r="G44" s="13">
-        <v>65852204</v>
+        <v>53772525</v>
       </c>
       <c r="H44" s="13">
-        <v>53772525</v>
+        <v>107231980</v>
       </c>
       <c r="I44" s="13">
-        <v>107231980</v>
+        <v>4213667</v>
       </c>
       <c r="J44" s="13">
-        <v>4213667</v>
+        <v>89978357</v>
       </c>
       <c r="K44" s="13">
-        <v>89978357</v>
+        <v>83039635</v>
       </c>
       <c r="L44" s="13">
-        <v>83039635</v>
+        <v>132874845</v>
       </c>
       <c r="M44" s="13">
-        <v>132874845</v>
+        <v>32680570</v>
       </c>
       <c r="N44" s="13">
-        <v>32680570</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+        <v>89811191</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1893,7 +1893,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1908,7 +1908,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1923,9 +1923,9 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -1960,7 +1960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1975,7 +1975,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>29</v>
       </c>
@@ -1984,74 +1984,74 @@
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
-        <v>182599278</v>
+        <v>214376823</v>
       </c>
       <c r="F50" s="9">
-        <v>214376823</v>
+        <v>170102852</v>
       </c>
       <c r="G50" s="9">
-        <v>170102852</v>
+        <v>164872462</v>
       </c>
       <c r="H50" s="9">
-        <v>164872462</v>
+        <v>221659196</v>
       </c>
       <c r="I50" s="9">
-        <v>221659196</v>
+        <v>186530534</v>
       </c>
       <c r="J50" s="9">
-        <v>186530534</v>
+        <v>177183635</v>
       </c>
       <c r="K50" s="9">
-        <v>177183635</v>
+        <v>182937721</v>
       </c>
       <c r="L50" s="9">
-        <v>182937721</v>
+        <v>129289208</v>
       </c>
       <c r="M50" s="9">
-        <v>129289208</v>
+        <v>200882836</v>
       </c>
       <c r="N50" s="9">
-        <v>200882836</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+        <v>181759863</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13">
-        <v>182599278</v>
+        <v>214376823</v>
       </c>
       <c r="F51" s="13">
-        <v>214376823</v>
+        <v>170102852</v>
       </c>
       <c r="G51" s="13">
-        <v>170102852</v>
+        <v>164872462</v>
       </c>
       <c r="H51" s="13">
-        <v>164872462</v>
+        <v>221659196</v>
       </c>
       <c r="I51" s="13">
-        <v>221659196</v>
+        <v>186530534</v>
       </c>
       <c r="J51" s="13">
-        <v>186530534</v>
+        <v>177183635</v>
       </c>
       <c r="K51" s="13">
-        <v>177183635</v>
+        <v>182937721</v>
       </c>
       <c r="L51" s="13">
-        <v>182937721</v>
+        <v>129289208</v>
       </c>
       <c r="M51" s="13">
-        <v>129289208</v>
+        <v>200882836</v>
       </c>
       <c r="N51" s="13">
-        <v>200882836</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+        <v>181759863</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2066,7 +2066,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2081,7 +2081,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2096,9 +2096,9 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -2133,7 +2133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2148,83 +2148,83 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D57" s="9"/>
-      <c r="E57" s="9" t="s">
-        <v>31</v>
+      <c r="E57" s="9">
+        <v>2498012</v>
       </c>
       <c r="F57" s="9">
-        <v>2498012</v>
+        <v>3256390</v>
       </c>
       <c r="G57" s="9">
-        <v>3256390</v>
+        <v>3269711</v>
       </c>
       <c r="H57" s="9">
-        <v>3269711</v>
+        <v>2919530</v>
       </c>
       <c r="I57" s="9">
-        <v>2919530</v>
+        <v>3334402</v>
       </c>
       <c r="J57" s="9">
-        <v>3334402</v>
+        <v>4365495</v>
       </c>
       <c r="K57" s="9">
-        <v>4365495</v>
+        <v>3633774</v>
       </c>
       <c r="L57" s="9">
-        <v>3633774</v>
+        <v>3519045</v>
       </c>
       <c r="M57" s="9">
-        <v>3519045</v>
+        <v>3933144</v>
       </c>
       <c r="N57" s="9">
-        <v>3933144</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5426918</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
-        <v>0</v>
+        <v>2498012</v>
       </c>
       <c r="F58" s="13">
-        <v>2498012</v>
+        <v>3256390</v>
       </c>
       <c r="G58" s="13">
-        <v>3256390</v>
+        <v>3269711</v>
       </c>
       <c r="H58" s="13">
-        <v>3269711</v>
+        <v>2919530</v>
       </c>
       <c r="I58" s="13">
-        <v>2919530</v>
+        <v>3334402</v>
       </c>
       <c r="J58" s="13">
-        <v>3334402</v>
+        <v>4365495</v>
       </c>
       <c r="K58" s="13">
-        <v>4365495</v>
+        <v>3633774</v>
       </c>
       <c r="L58" s="13">
-        <v>3633774</v>
+        <v>3519045</v>
       </c>
       <c r="M58" s="13">
-        <v>3519045</v>
+        <v>3933144</v>
       </c>
       <c r="N58" s="13">
-        <v>3933144</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5426918</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2239,7 +2239,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2254,7 +2254,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2269,9 +2269,9 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -2306,7 +2306,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2321,83 +2321,83 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
-        <v>2254883</v>
+        <v>2373920</v>
       </c>
       <c r="F64" s="9">
-        <v>2373920</v>
+        <v>2710602</v>
       </c>
       <c r="G64" s="9">
-        <v>2710602</v>
+        <v>1398735</v>
       </c>
       <c r="H64" s="9">
-        <v>1398735</v>
+        <v>3115382</v>
       </c>
       <c r="I64" s="9">
-        <v>3115382</v>
+        <v>2124329</v>
       </c>
       <c r="J64" s="9">
-        <v>2124329</v>
+        <v>967877</v>
       </c>
       <c r="K64" s="9">
-        <v>967877</v>
+        <v>2903487</v>
       </c>
       <c r="L64" s="9">
-        <v>2903487</v>
+        <v>3899803</v>
       </c>
       <c r="M64" s="9">
-        <v>3899803</v>
+        <v>5086978</v>
       </c>
       <c r="N64" s="9">
-        <v>5086978</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5158738</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13">
-        <v>2254883</v>
+        <v>2373920</v>
       </c>
       <c r="F65" s="13">
-        <v>2373920</v>
+        <v>2710602</v>
       </c>
       <c r="G65" s="13">
-        <v>2710602</v>
+        <v>1398735</v>
       </c>
       <c r="H65" s="13">
-        <v>1398735</v>
+        <v>3115382</v>
       </c>
       <c r="I65" s="13">
-        <v>3115382</v>
+        <v>2124329</v>
       </c>
       <c r="J65" s="13">
-        <v>2124329</v>
+        <v>967877</v>
       </c>
       <c r="K65" s="13">
-        <v>967877</v>
+        <v>2903487</v>
       </c>
       <c r="L65" s="13">
-        <v>2903487</v>
+        <v>3899803</v>
       </c>
       <c r="M65" s="13">
-        <v>3899803</v>
+        <v>5086978</v>
       </c>
       <c r="N65" s="13">
-        <v>5086978</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5158738</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2412,7 +2412,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2427,7 +2427,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2442,9 +2442,9 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -2479,7 +2479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2494,83 +2494,83 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9">
-        <v>1329586</v>
+        <v>1615542</v>
       </c>
       <c r="F71" s="9">
-        <v>1615542</v>
+        <v>2723341</v>
       </c>
       <c r="G71" s="9">
-        <v>2723341</v>
+        <v>1748916</v>
       </c>
       <c r="H71" s="9">
-        <v>1748916</v>
+        <v>2193065</v>
       </c>
       <c r="I71" s="9">
-        <v>2193065</v>
+        <v>1477656</v>
       </c>
       <c r="J71" s="9">
-        <v>1477656</v>
+        <v>2918407</v>
       </c>
       <c r="K71" s="9">
-        <v>2918407</v>
+        <v>3018216</v>
       </c>
       <c r="L71" s="9">
-        <v>3018216</v>
+        <v>3485704</v>
       </c>
       <c r="M71" s="9">
-        <v>3485704</v>
+        <v>3593204</v>
       </c>
       <c r="N71" s="9">
-        <v>3593204</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3875192</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
-        <v>1329586</v>
+        <v>1615542</v>
       </c>
       <c r="F72" s="13">
-        <v>1615542</v>
+        <v>2723341</v>
       </c>
       <c r="G72" s="13">
-        <v>2723341</v>
+        <v>1748916</v>
       </c>
       <c r="H72" s="13">
-        <v>1748916</v>
+        <v>2193065</v>
       </c>
       <c r="I72" s="13">
-        <v>2193065</v>
+        <v>1477656</v>
       </c>
       <c r="J72" s="13">
-        <v>1477656</v>
+        <v>2918407</v>
       </c>
       <c r="K72" s="13">
-        <v>2918407</v>
+        <v>3018216</v>
       </c>
       <c r="L72" s="13">
-        <v>3018216</v>
+        <v>3485704</v>
       </c>
       <c r="M72" s="13">
-        <v>3485704</v>
+        <v>3593204</v>
       </c>
       <c r="N72" s="13">
-        <v>3593204</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3875192</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2585,7 +2585,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2600,7 +2600,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2615,9 +2615,9 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B76" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -2652,7 +2652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2667,83 +2667,83 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9">
-        <v>2498012</v>
+        <v>3256390</v>
       </c>
       <c r="F78" s="9">
-        <v>3256390</v>
+        <v>3269711</v>
       </c>
       <c r="G78" s="9">
-        <v>3269711</v>
+        <v>2919530</v>
       </c>
       <c r="H78" s="9">
-        <v>2919530</v>
+        <v>3718822</v>
       </c>
       <c r="I78" s="9">
-        <v>3718822</v>
+        <v>4365495</v>
       </c>
       <c r="J78" s="9">
-        <v>4365495</v>
+        <v>3633774</v>
       </c>
       <c r="K78" s="9">
-        <v>3633774</v>
+        <v>3519045</v>
       </c>
       <c r="L78" s="9">
-        <v>3519045</v>
+        <v>3933144</v>
       </c>
       <c r="M78" s="9">
-        <v>3933144</v>
+        <v>5426918</v>
       </c>
       <c r="N78" s="9">
-        <v>5426918</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6710464</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13">
-        <v>2498012</v>
+        <v>3256390</v>
       </c>
       <c r="F79" s="13">
-        <v>3256390</v>
+        <v>3269711</v>
       </c>
       <c r="G79" s="13">
-        <v>3269711</v>
+        <v>2919530</v>
       </c>
       <c r="H79" s="13">
-        <v>2919530</v>
+        <v>3718822</v>
       </c>
       <c r="I79" s="13">
-        <v>3718822</v>
+        <v>4365495</v>
       </c>
       <c r="J79" s="13">
-        <v>4365495</v>
+        <v>3633774</v>
       </c>
       <c r="K79" s="13">
-        <v>3633774</v>
+        <v>3519045</v>
       </c>
       <c r="L79" s="13">
-        <v>3519045</v>
+        <v>3933144</v>
       </c>
       <c r="M79" s="13">
-        <v>3933144</v>
+        <v>5426918</v>
       </c>
       <c r="N79" s="13">
-        <v>5426918</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6710464</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2758,7 +2758,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2773,7 +2773,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2788,9 +2788,9 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -2825,7 +2825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2840,46 +2840,46 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D85" s="9"/>
-      <c r="E85" s="9" t="s">
-        <v>31</v>
+      <c r="E85" s="9">
+        <v>13680</v>
       </c>
       <c r="F85" s="9">
-        <v>13680</v>
+        <v>15190</v>
       </c>
       <c r="G85" s="9">
-        <v>15190</v>
+        <v>19222</v>
       </c>
       <c r="H85" s="9">
-        <v>19222</v>
+        <v>17708</v>
       </c>
       <c r="I85" s="9">
-        <v>17708</v>
+        <v>16777</v>
       </c>
       <c r="J85" s="9">
-        <v>16777</v>
+        <v>23404</v>
       </c>
       <c r="K85" s="9">
-        <v>23404</v>
+        <v>20509</v>
       </c>
       <c r="L85" s="9">
-        <v>20509</v>
+        <v>19236</v>
       </c>
       <c r="M85" s="9">
-        <v>19236</v>
+        <v>30421</v>
       </c>
       <c r="N85" s="9">
-        <v>30421</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+        <v>27015</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2894,7 +2894,7 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2909,7 +2909,7 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2924,9 +2924,9 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B89" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -2961,7 +2961,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2976,46 +2976,46 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9">
-        <v>20122</v>
+        <v>22655</v>
       </c>
       <c r="F91" s="9">
-        <v>22655</v>
+        <v>31104</v>
       </c>
       <c r="G91" s="9">
-        <v>31104</v>
+        <v>28815</v>
       </c>
       <c r="H91" s="9">
-        <v>28815</v>
+        <v>18994</v>
       </c>
       <c r="I91" s="9">
-        <v>18994</v>
+        <v>-68715</v>
       </c>
       <c r="J91" s="9">
-        <v>-68715</v>
+        <v>15075</v>
       </c>
       <c r="K91" s="9">
-        <v>15075</v>
+        <v>32699</v>
       </c>
       <c r="L91" s="9">
-        <v>32699</v>
+        <v>49224</v>
       </c>
       <c r="M91" s="9">
-        <v>49224</v>
+        <v>48785</v>
       </c>
       <c r="N91" s="9">
-        <v>48785</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+        <v>72979</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3030,7 +3030,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3045,7 +3045,7 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3060,9 +3060,9 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B95" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -3097,7 +3097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3112,46 +3112,46 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9">
-        <v>16883</v>
+        <v>22128</v>
       </c>
       <c r="F97" s="9">
-        <v>22128</v>
+        <v>41355</v>
       </c>
       <c r="G97" s="9">
-        <v>41355</v>
+        <v>32524</v>
       </c>
       <c r="H97" s="9">
-        <v>32524</v>
+        <v>20452</v>
       </c>
       <c r="I97" s="9">
-        <v>20452</v>
+        <v>350682</v>
       </c>
       <c r="J97" s="9">
-        <v>350682</v>
+        <v>32435</v>
       </c>
       <c r="K97" s="9">
-        <v>32435</v>
+        <v>36347</v>
       </c>
       <c r="L97" s="9">
-        <v>36347</v>
+        <v>26233</v>
       </c>
       <c r="M97" s="9">
-        <v>26233</v>
+        <v>109949</v>
       </c>
       <c r="N97" s="9">
-        <v>109949</v>
-      </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+        <v>43148</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3166,7 +3166,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -3181,7 +3181,7 @@
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3196,9 +3196,9 @@
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B101" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -3233,7 +3233,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3248,7 +3248,7 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>29</v>
       </c>
@@ -3257,37 +3257,37 @@
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H103" s="9" t="s">
-        <v>31</v>
+        <v>44</v>
+      </c>
+      <c r="H103" s="9">
+        <v>16777</v>
       </c>
       <c r="I103" s="9">
-        <v>16777</v>
+        <v>23404</v>
       </c>
       <c r="J103" s="9">
-        <v>23404</v>
+        <v>20509</v>
       </c>
       <c r="K103" s="9">
-        <v>20509</v>
+        <v>19236</v>
       </c>
       <c r="L103" s="9">
-        <v>19236</v>
+        <v>30421</v>
       </c>
       <c r="M103" s="9">
-        <v>30421</v>
+        <v>27015</v>
       </c>
       <c r="N103" s="9">
-        <v>27015</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+        <v>36919</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3302,7 +3302,7 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3317,7 +3317,7 @@
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3332,7 +3332,7 @@
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B107" s="7" t="s">
         <v>45</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -3384,44 +3384,44 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9">
-        <v>2553</v>
+        <v>3279</v>
       </c>
       <c r="F109" s="9">
-        <v>3279</v>
+        <v>3776</v>
       </c>
       <c r="G109" s="9">
-        <v>3776</v>
+        <v>3358</v>
       </c>
       <c r="H109" s="9">
-        <v>3358</v>
+        <v>1015</v>
       </c>
       <c r="I109" s="9">
-        <v>1015</v>
+        <v>3777</v>
       </c>
       <c r="J109" s="9">
-        <v>3777</v>
+        <v>4387</v>
       </c>
       <c r="K109" s="9">
-        <v>4387</v>
+        <v>3313</v>
       </c>
       <c r="L109" s="9">
-        <v>3313</v>
+        <v>6098</v>
       </c>
       <c r="M109" s="9">
-        <v>6098</v>
+        <v>10564</v>
       </c>
       <c r="N109" s="9">
-        <v>10564</v>
-      </c>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+        <v>21493</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>47</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>48</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>49</v>
       </c>
@@ -3532,155 +3532,155 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
       <c r="E113" s="9">
-        <v>5695</v>
+        <v>4987</v>
       </c>
       <c r="F113" s="9">
-        <v>4987</v>
+        <v>49265</v>
       </c>
       <c r="G113" s="9">
-        <v>49265</v>
+        <v>12657</v>
       </c>
       <c r="H113" s="9">
-        <v>12657</v>
+        <v>-2036</v>
       </c>
       <c r="I113" s="9">
-        <v>-2036</v>
+        <v>40513</v>
       </c>
       <c r="J113" s="9">
-        <v>40513</v>
+        <v>117628</v>
       </c>
       <c r="K113" s="9">
-        <v>117628</v>
+        <v>4622</v>
       </c>
       <c r="L113" s="9">
-        <v>4622</v>
+        <v>34050</v>
       </c>
       <c r="M113" s="9">
-        <v>34050</v>
+        <v>18693</v>
       </c>
       <c r="N113" s="9">
-        <v>18693</v>
-      </c>
-    </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+        <v>374569</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
       <c r="E114" s="11">
-        <v>2493</v>
+        <v>2812</v>
       </c>
       <c r="F114" s="11">
-        <v>2812</v>
+        <v>2895</v>
       </c>
       <c r="G114" s="11">
-        <v>2895</v>
+        <v>3250</v>
       </c>
       <c r="H114" s="11">
-        <v>3250</v>
+        <v>1131</v>
       </c>
       <c r="I114" s="11">
-        <v>1131</v>
+        <v>4170</v>
       </c>
       <c r="J114" s="11">
-        <v>4170</v>
+        <v>3227</v>
       </c>
       <c r="K114" s="11">
-        <v>3227</v>
+        <v>3113</v>
       </c>
       <c r="L114" s="11">
-        <v>3113</v>
+        <v>5928</v>
       </c>
       <c r="M114" s="11">
-        <v>5928</v>
+        <v>5687</v>
       </c>
       <c r="N114" s="11">
-        <v>5687</v>
-      </c>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5309</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9">
-        <v>7220</v>
+        <v>7486</v>
       </c>
       <c r="F115" s="9">
-        <v>7486</v>
+        <v>18137</v>
       </c>
       <c r="G115" s="9">
-        <v>18137</v>
+        <v>10659</v>
       </c>
       <c r="H115" s="9">
-        <v>10659</v>
+        <v>9322</v>
       </c>
       <c r="I115" s="9">
-        <v>9322</v>
+        <v>11996</v>
       </c>
       <c r="J115" s="9">
-        <v>11996</v>
+        <v>27684</v>
       </c>
       <c r="K115" s="9">
-        <v>27684</v>
+        <v>0</v>
       </c>
       <c r="L115" s="9">
-        <v>0</v>
+        <v>29830</v>
       </c>
       <c r="M115" s="9">
-        <v>29830</v>
+        <v>3729</v>
       </c>
       <c r="N115" s="9">
-        <v>3729</v>
-      </c>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+        <v>86102</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
-        <v>48682</v>
+        <v>62736</v>
       </c>
       <c r="F116" s="11">
-        <v>62736</v>
+        <v>70185</v>
       </c>
       <c r="G116" s="11">
-        <v>70185</v>
+        <v>102923</v>
       </c>
       <c r="H116" s="11">
-        <v>102923</v>
+        <v>86149</v>
       </c>
       <c r="I116" s="11">
-        <v>86149</v>
+        <v>92943</v>
       </c>
       <c r="J116" s="11">
-        <v>92943</v>
+        <v>109367</v>
       </c>
       <c r="K116" s="11">
-        <v>109367</v>
+        <v>181436</v>
       </c>
       <c r="L116" s="11">
-        <v>181436</v>
+        <v>155215</v>
       </c>
       <c r="M116" s="11">
-        <v>155215</v>
+        <v>154299</v>
       </c>
       <c r="N116" s="11">
-        <v>154299</v>
-      </c>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+        <v>293291</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>54</v>
       </c>
@@ -3717,81 +3717,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
       <c r="E118" s="11">
-        <v>30090</v>
+        <v>45539</v>
       </c>
       <c r="F118" s="11">
-        <v>45539</v>
+        <v>63876</v>
       </c>
       <c r="G118" s="11">
-        <v>63876</v>
+        <v>24015</v>
       </c>
       <c r="H118" s="11">
-        <v>24015</v>
+        <v>40183</v>
       </c>
       <c r="I118" s="11">
-        <v>40183</v>
+        <v>79769</v>
       </c>
       <c r="J118" s="11">
-        <v>79769</v>
+        <v>60740</v>
       </c>
       <c r="K118" s="11">
-        <v>60740</v>
+        <v>79940</v>
       </c>
       <c r="L118" s="11">
-        <v>79940</v>
+        <v>120163</v>
       </c>
       <c r="M118" s="11">
-        <v>120163</v>
+        <v>128403</v>
       </c>
       <c r="N118" s="11">
-        <v>128403</v>
-      </c>
-    </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-106294</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C119" s="15"/>
       <c r="D119" s="15"/>
       <c r="E119" s="15">
-        <v>96733</v>
+        <v>126839</v>
       </c>
       <c r="F119" s="15">
-        <v>126839</v>
+        <v>208134</v>
       </c>
       <c r="G119" s="15">
-        <v>208134</v>
+        <v>156862</v>
       </c>
       <c r="H119" s="15">
-        <v>156862</v>
+        <v>135764</v>
       </c>
       <c r="I119" s="15">
-        <v>135764</v>
+        <v>233168</v>
       </c>
       <c r="J119" s="15">
-        <v>233168</v>
+        <v>323033</v>
       </c>
       <c r="K119" s="15">
-        <v>323033</v>
+        <v>272424</v>
       </c>
       <c r="L119" s="15">
-        <v>272424</v>
+        <v>351284</v>
       </c>
       <c r="M119" s="15">
-        <v>351284</v>
+        <v>321375</v>
       </c>
       <c r="N119" s="15">
-        <v>321375</v>
-      </c>
-    </row>
-    <row r="123" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>674470</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B123" s="7" t="s">
         <v>56</v>
       </c>
@@ -3800,7 +3800,7 @@
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>57</v>
       </c>
@@ -3811,7 +3811,7 @@
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>59</v>
       </c>
@@ -3822,7 +3822,7 @@
       <c r="E126" s="11"/>
       <c r="F126" s="11"/>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>60</v>
       </c>
@@ -3833,7 +3833,7 @@
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>61</v>
       </c>
@@ -3844,7 +3844,7 @@
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>62</v>
       </c>
@@ -3855,7 +3855,7 @@
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>63</v>
       </c>
